--- a/Tableau-synthese.xlsx
+++ b/Tableau-synthese.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kylian\Documents\COURS\Site internet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D769EA8-ACB4-4458-8B18-68D27EF83959}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{754A4BC7-732F-418D-BFBB-AF264E2A83BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="12360" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -2019,6 +2019,7 @@
     <mergeCell ref="F31:G31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>